--- a/app/database/seeds/seed_files/masterfile.xlsx
+++ b/app/database/seeds/seed_files/masterfile.xlsx
@@ -2533,7 +2533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9252" uniqueCount="2738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9253" uniqueCount="2739">
   <si>
     <t>MT</t>
   </si>
@@ -10747,6 +10747,9 @@
   </si>
   <si>
     <t>active_customer_code</t>
+  </si>
+  <si>
+    <t>multiplier</t>
   </si>
 </sst>
 </file>
@@ -56858,8 +56861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56872,7 +56875,7 @@
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -56885,8 +56888,11 @@
       <c r="D1" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -56899,8 +56905,11 @@
       <c r="D2" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -56913,8 +56922,11 @@
       <c r="D3" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -56927,8 +56939,11 @@
       <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -56941,8 +56956,11 @@
       <c r="D5" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -56955,8 +56973,11 @@
       <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -56969,8 +56990,11 @@
       <c r="D7" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -56983,8 +57007,11 @@
       <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -56997,8 +57024,11 @@
       <c r="D9" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -57011,8 +57041,11 @@
       <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -57025,8 +57058,11 @@
       <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -57039,8 +57075,11 @@
       <c r="D12" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -57053,8 +57092,11 @@
       <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -57067,8 +57109,11 @@
       <c r="D14" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
@@ -57081,8 +57126,11 @@
       <c r="D15" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -57095,8 +57143,11 @@
       <c r="D16" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
@@ -57109,8 +57160,11 @@
       <c r="D17" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
@@ -57123,8 +57177,11 @@
       <c r="D18" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
@@ -57137,8 +57194,11 @@
       <c r="D19" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
@@ -57151,8 +57211,11 @@
       <c r="D20" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
@@ -57165,8 +57228,11 @@
       <c r="D21" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
@@ -57179,8 +57245,11 @@
       <c r="D22" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -57193,8 +57262,11 @@
       <c r="D23" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -57207,8 +57279,11 @@
       <c r="D24" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -57221,8 +57296,11 @@
       <c r="D25" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
@@ -57235,8 +57313,11 @@
       <c r="D26" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
@@ -57249,8 +57330,11 @@
       <c r="D27" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
@@ -57263,8 +57347,11 @@
       <c r="D28" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
@@ -57277,8 +57364,11 @@
       <c r="D29" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>18</v>
       </c>
@@ -57291,8 +57381,11 @@
       <c r="D30" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>18</v>
       </c>
@@ -57305,8 +57398,11 @@
       <c r="D31" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>18</v>
       </c>
@@ -57319,8 +57415,11 @@
       <c r="D32" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
@@ -57333,8 +57432,11 @@
       <c r="D33" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
@@ -57347,8 +57449,11 @@
       <c r="D34" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>20</v>
       </c>
@@ -57361,8 +57466,11 @@
       <c r="D35" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>20</v>
       </c>
@@ -57375,8 +57483,11 @@
       <c r="D36" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>20</v>
       </c>
@@ -57389,8 +57500,11 @@
       <c r="D37" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>20</v>
       </c>
@@ -57403,8 +57517,11 @@
       <c r="D38" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>20</v>
       </c>
@@ -57417,8 +57534,11 @@
       <c r="D39" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
@@ -57431,8 +57551,11 @@
       <c r="D40" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>20</v>
       </c>
@@ -57445,8 +57568,11 @@
       <c r="D41" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>22</v>
       </c>
@@ -57459,8 +57585,11 @@
       <c r="D42" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -57473,8 +57602,11 @@
       <c r="D43" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>22</v>
       </c>
@@ -57487,8 +57619,11 @@
       <c r="D44" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>22</v>
       </c>
@@ -57501,8 +57636,11 @@
       <c r="D45" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>22</v>
       </c>
@@ -57515,8 +57653,11 @@
       <c r="D46" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>22</v>
       </c>
@@ -57529,8 +57670,11 @@
       <c r="D47" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>22</v>
       </c>
@@ -57543,8 +57687,11 @@
       <c r="D48" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>24</v>
       </c>
@@ -57557,8 +57704,11 @@
       <c r="D49" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>24</v>
       </c>
@@ -57571,8 +57721,11 @@
       <c r="D50" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>24</v>
       </c>
@@ -57585,8 +57738,11 @@
       <c r="D51" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>24</v>
       </c>
@@ -57599,8 +57755,11 @@
       <c r="D52" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>24</v>
       </c>
@@ -57613,8 +57772,11 @@
       <c r="D53" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>24</v>
       </c>
@@ -57627,8 +57789,11 @@
       <c r="D54" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>24</v>
       </c>
@@ -57641,8 +57806,11 @@
       <c r="D55" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>26</v>
       </c>
@@ -57655,8 +57823,11 @@
       <c r="D56" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>26</v>
       </c>
@@ -57669,8 +57840,11 @@
       <c r="D57" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>26</v>
       </c>
@@ -57683,8 +57857,11 @@
       <c r="D58" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>26</v>
       </c>
@@ -57697,8 +57874,11 @@
       <c r="D59" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>28</v>
       </c>
@@ -57711,8 +57891,11 @@
       <c r="D60" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>28</v>
       </c>
@@ -57725,8 +57908,11 @@
       <c r="D61" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>28</v>
       </c>
@@ -57739,8 +57925,11 @@
       <c r="D62" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>28</v>
       </c>
@@ -57753,8 +57942,11 @@
       <c r="D63" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>28</v>
       </c>
@@ -57767,8 +57959,11 @@
       <c r="D64" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
         <v>30</v>
       </c>
@@ -57781,8 +57976,11 @@
       <c r="D65" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>30</v>
       </c>
@@ -57795,8 +57993,11 @@
       <c r="D66" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>30</v>
       </c>
@@ -57809,8 +58010,11 @@
       <c r="D67" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>32</v>
       </c>
@@ -57823,8 +58027,11 @@
       <c r="D68" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>32</v>
       </c>
@@ -57837,8 +58044,11 @@
       <c r="D69" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>32</v>
       </c>
@@ -57851,8 +58061,11 @@
       <c r="D70" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>32</v>
       </c>
@@ -57865,8 +58078,11 @@
       <c r="D71" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>32</v>
       </c>
@@ -57879,8 +58095,11 @@
       <c r="D72" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>32</v>
       </c>
@@ -57893,8 +58112,11 @@
       <c r="D73" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>32</v>
       </c>
@@ -57907,8 +58129,11 @@
       <c r="D74" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>32</v>
       </c>
@@ -57921,8 +58146,11 @@
       <c r="D75" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>32</v>
       </c>
@@ -57935,8 +58163,11 @@
       <c r="D76" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>32</v>
       </c>
@@ -57949,8 +58180,11 @@
       <c r="D77" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>34</v>
       </c>
@@ -57963,8 +58197,11 @@
       <c r="D78" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>34</v>
       </c>
@@ -57977,8 +58214,11 @@
       <c r="D79" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>34</v>
       </c>
@@ -57991,8 +58231,11 @@
       <c r="D80" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>34</v>
       </c>
@@ -58004,6 +58247,9 @@
       </c>
       <c r="D81" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/seeds/seed_files/masterfile.xlsx
+++ b/app/database/seeds/seed_files/masterfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -11328,7 +11328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -56841,8 +56841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56851,7 +56851,7 @@
     <col min="2" max="2" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>

--- a/app/database/seeds/seed_files/masterfile.xlsx
+++ b/app/database/seeds/seed_files/masterfile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">account!$A$1:$F$153</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">customer!$A$1:$D$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">customer!$A$1:$D$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">outlet!$A$1:$E$1527</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sub_channel!$B$1:$B$24</definedName>
   </definedNames>
@@ -2533,7 +2533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9253" uniqueCount="2739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9263" uniqueCount="2741">
   <si>
     <t>MT</t>
   </si>
@@ -10750,6 +10750,12 @@
   </si>
   <si>
     <t>multiplier</t>
+  </si>
+  <si>
+    <t>E55555</t>
+  </si>
+  <si>
+    <t>ALPHA MART</t>
   </si>
 </sst>
 </file>
@@ -56839,10 +56845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57285,10 +57291,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>90</v>
+        <v>2739</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>91</v>
+        <v>2740</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>42</v>
@@ -57299,16 +57305,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -57319,10 +57325,10 @@
         <v>16</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>49</v>
@@ -57336,10 +57342,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>49</v>
@@ -57350,16 +57356,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3">
         <v>100</v>
@@ -57370,10 +57376,10 @@
         <v>18</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>42</v>
@@ -57387,10 +57393,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>42</v>
@@ -57404,10 +57410,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>42</v>
@@ -57418,13 +57424,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>42</v>
@@ -57438,13 +57444,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -57455,13 +57461,13 @@
         <v>20</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E36" s="3">
         <v>100</v>
@@ -57472,10 +57478,10 @@
         <v>20</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>42</v>
@@ -57489,10 +57495,10 @@
         <v>20</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>42</v>
@@ -57506,10 +57512,10 @@
         <v>20</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>42</v>
@@ -57523,13 +57529,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E40" s="3">
         <v>100</v>
@@ -57540,13 +57546,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -57554,13 +57560,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>42</v>
@@ -57574,10 +57580,10 @@
         <v>22</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>42</v>
@@ -57591,10 +57597,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>42</v>
@@ -57608,10 +57614,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>42</v>
@@ -57625,10 +57631,10 @@
         <v>22</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>42</v>
@@ -57642,10 +57648,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>42</v>
@@ -57655,16 +57661,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="36" t="s">
+      <c r="B48" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="3">
@@ -57673,13 +57679,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>42</v>
@@ -57689,16 +57695,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="B50" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="3">
@@ -57710,10 +57716,10 @@
         <v>24</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>42</v>
@@ -57727,10 +57733,10 @@
         <v>24</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>42</v>
@@ -57761,10 +57767,10 @@
         <v>24</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>42</v>
@@ -57778,10 +57784,10 @@
         <v>24</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>42</v>
@@ -57792,16 +57798,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E56" s="3">
         <v>100</v>
@@ -57812,29 +57818,29 @@
         <v>26</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="36" t="s">
+      <c r="B58" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="3">
@@ -57842,16 +57848,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="B59" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="3">
@@ -57859,16 +57865,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="36" t="s">
+      <c r="A60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="3">
@@ -57876,17 +57882,17 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>49</v>
+      <c r="B61" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -57897,13 +57903,13 @@
         <v>28</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -57914,10 +57920,10 @@
         <v>28</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>42</v>
@@ -57927,16 +57933,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="36" t="s">
+      <c r="B64" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="3">
@@ -57945,13 +57951,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>42</v>
@@ -57965,10 +57971,10 @@
         <v>30</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>42</v>
@@ -57978,17 +57984,17 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>49</v>
+      <c r="B67" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="E67" s="3">
         <v>100</v>
@@ -57996,16 +58002,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E68" s="3">
         <v>100</v>
@@ -58016,10 +58022,10 @@
         <v>32</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>42</v>
@@ -58033,10 +58039,10 @@
         <v>32</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>42</v>
@@ -58050,13 +58056,13 @@
         <v>32</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E71" s="3">
         <v>100</v>
@@ -58067,13 +58073,13 @@
         <v>32</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E72" s="3">
         <v>100</v>
@@ -58084,10 +58090,10 @@
         <v>32</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>42</v>
@@ -58101,10 +58107,10 @@
         <v>32</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>42</v>
@@ -58118,10 +58124,10 @@
         <v>32</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>42</v>
@@ -58135,46 +58141,46 @@
         <v>32</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E76" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>42</v>
+      <c r="B77" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E77" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="A78" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="3">
@@ -58186,10 +58192,10 @@
         <v>34</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>42</v>
@@ -58203,13 +58209,13 @@
         <v>34</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E80" s="3">
         <v>100</v>
@@ -58220,15 +58226,32 @@
         <v>34</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="3">
         <v>100</v>
       </c>
     </row>
@@ -58239,10 +58262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58317,6 +58340,39 @@
       <c r="O4" s="38">
         <f>L2+M4</f>
         <v>1246094.216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/seeds/seed_files/masterfile.xlsx
+++ b/app/database/seeds/seed_files/masterfile.xlsx
@@ -56847,7 +56847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -58265,7 +58265,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60020,7 +60020,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/database/seeds/seed_files/masterfile.xlsx
+++ b/app/database/seeds/seed_files/masterfile.xlsx
@@ -58265,7 +58265,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58286,12 +58286,7 @@
       <c r="C1" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L1" s="38">
-        <v>641519.97</v>
-      </c>
-      <c r="M1" s="37">
-        <v>732878.24</v>
-      </c>
+      <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -58304,10 +58299,6 @@
         <v>80</v>
       </c>
       <c r="K2" s="37"/>
-      <c r="L2" s="38">
-        <f>(L1*C2)/100</f>
-        <v>513215.97599999997</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -58319,10 +58310,6 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="L3" s="38">
-        <f>(L1*C3)/100</f>
-        <v>128303.99399999999</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -58334,13 +58321,8 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="M4" s="37">
-        <v>732878.24</v>
-      </c>
-      <c r="O4" s="38">
-        <f>L2+M4</f>
-        <v>1246094.216</v>
-      </c>
+      <c r="M4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
